--- a/pedigree-node-individual.xlsx
+++ b/pedigree-node-individual.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
   <si>
     <t>Path</t>
   </si>
@@ -248,10 +248,14 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ga4gh.org/fhir/phenopackets/StructureDefinition/individual)
+    <t xml:space="preserve">Reference(http://ga4gh.org/fhir/phenopackets/StructureDefinition/Individual)
 </t>
   </si>
 </sst>
@@ -854,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>50</v>
@@ -1054,7 +1058,7 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>67</v>
@@ -1065,7 +1069,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1087,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>70</v>
@@ -1156,7 +1160,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>67</v>
